--- a/mailing-list.xlsx
+++ b/mailing-list.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
